--- a/exp.xlsx
+++ b/exp.xlsx
@@ -1,36 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bendj\OneDrive\Documents\University Level 4\Project\project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
   </bookViews>
   <sheets>
-    <sheet name="30-None" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="30-Pruning" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="30-Edge" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="30-Both" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="200-None" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="200-Pruning" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="200-Edge" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="200-Both" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="1000-None" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="1000-Pruning" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="1000-Edge" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="1000-Both" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="3000-None" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="3000-Pruning" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="3000-Edge" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="3000-Both" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="30-None" sheetId="1" r:id="rId1"/>
+    <sheet name="30-Pruning" sheetId="2" r:id="rId2"/>
+    <sheet name="30-Edge" sheetId="3" r:id="rId3"/>
+    <sheet name="30-Both" sheetId="4" r:id="rId4"/>
+    <sheet name="200-None" sheetId="5" r:id="rId5"/>
+    <sheet name="200-Pruning" sheetId="6" r:id="rId6"/>
+    <sheet name="200-Edge" sheetId="7" r:id="rId7"/>
+    <sheet name="200-Both" sheetId="8" r:id="rId8"/>
+    <sheet name="1000-None" sheetId="9" r:id="rId9"/>
+    <sheet name="1000-Pruning" sheetId="10" r:id="rId10"/>
+    <sheet name="1000-Edge" sheetId="11" r:id="rId11"/>
+    <sheet name="1000-Both" sheetId="12" r:id="rId12"/>
+    <sheet name="3000-None" sheetId="13" r:id="rId13"/>
+    <sheet name="3000-Pruning" sheetId="14" r:id="rId14"/>
+    <sheet name="3000-Edge" sheetId="15" r:id="rId15"/>
+    <sheet name="3000-Both" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="18">
   <si>
     <t>Run 1</t>
   </si>
@@ -89,30 +93,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -125,6 +111,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -135,7 +127,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -143,347 +135,612 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A14:B64 A1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="32.1530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.2959183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.719387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="33.4234693877551"/>
+    <col min="1" max="1" width="29.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="1025" width="33.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="4">
         <v>0.8</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="4">
         <v>0.5</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="4">
         <v>0.7</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="4">
         <v>0.5</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="4">
         <v>0.7</v>
       </c>
-      <c r="G2" s="1" t="n">
-        <f aca="false">AVERAGE(B2:F2)</f>
+      <c r="G2" s="3">
+        <f t="shared" ref="G2:G11" si="0">AVERAGE(B2:F2)</f>
         <v>0.64</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="4">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="4">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="4">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="4">
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="4">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="n">
-        <f aca="false">AVERAGE(B3:F3)</f>
+      <c r="G3" s="3">
+        <f t="shared" si="0"/>
         <v>12.4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="4">
         <v>0</v>
       </c>
-      <c r="G4" s="1" t="n">
-        <f aca="false">AVERAGE(B4:F4)</f>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="4">
         <v>36</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="4">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="4">
         <v>22</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="4">
         <v>16</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="4">
         <v>17</v>
       </c>
-      <c r="G5" s="1" t="n">
-        <f aca="false">AVERAGE(B5:F5)</f>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
         <v>22.2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="4">
         <v>114</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="4">
         <v>168</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="4">
         <v>134</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="4">
         <v>129</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="4">
         <v>131</v>
       </c>
-      <c r="G6" s="1" t="n">
-        <f aca="false">AVERAGE(B6:F6)</f>
-        <v>135.2</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>135.19999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="4">
         <v>166</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="4">
         <v>200</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="4">
         <v>169</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="4">
         <v>157</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="4">
         <v>161</v>
       </c>
-      <c r="G7" s="1" t="n">
-        <f aca="false">AVERAGE(B7:F7)</f>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
         <v>170.6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="4">
         <v>167</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="4">
         <v>200</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="4">
         <v>169</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="4">
         <v>157</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="4">
         <v>161</v>
       </c>
-      <c r="G8" s="1" t="n">
-        <f aca="false">AVERAGE(B8:F8)</f>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
         <v>170.8</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="4">
         <v>31</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="4">
         <v>31</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="4">
         <v>31</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="4">
         <v>31</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="4">
         <v>31</v>
       </c>
-      <c r="G9" s="1" t="n">
-        <f aca="false">AVERAGE(B9:F9)</f>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="4">
         <v>26</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="4">
         <v>26</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="4">
         <v>26</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="4">
         <v>26</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="4">
         <v>26</v>
       </c>
-      <c r="G10" s="1" t="n">
-        <f aca="false">AVERAGE(B10:F10)</f>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="3">
         <v>1300</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="3">
         <v>1300</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="3">
         <v>1300</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="3">
         <v>1300</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="3">
         <v>1300</v>
       </c>
-      <c r="G11" s="1" t="n">
-        <f aca="false">AVERAGE(B11:F11)</f>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
         <v>1300</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -491,268 +748,309 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="1" sqref="A14:B64 C24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.7602040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="1025" width="11.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4">
         <v>3.8</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4">
         <v>3.2</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="4">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="4">
         <v>2.9</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="4">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="G2" s="3">
+        <f>AVERAGE(B2:F2)</f>
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4">
         <v>56</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4">
         <v>61</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="4">
         <v>60</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="4">
         <v>55</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="4">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G12" si="0">AVERAGE(B3:F3)</f>
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4">
         <v>10</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4">
         <v>10</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4">
         <v>138</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4">
         <v>109</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4">
         <v>97</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4">
         <v>103</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="4">
         <v>94</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>108.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4">
         <v>5770</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4">
         <v>7931</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4">
         <v>10867</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4">
         <v>12159</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="4">
         <v>9481</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>9241.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4">
         <v>5973</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4">
         <v>8108</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4">
         <v>11034</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="4">
         <v>12327</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="4">
         <v>9647</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>9417.7999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4">
         <v>5973</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4">
         <v>8110</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4">
         <v>11034</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="4">
         <v>12328</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="4">
         <v>9647</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>9418.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4">
         <v>226</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4">
         <v>226</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4">
         <v>226</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4">
         <v>226</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="4">
         <v>226</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4">
         <v>224</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4">
         <v>224</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4">
         <v>224</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4">
         <v>224</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="4">
         <v>224</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4">
         <v>32.6</v>
       </c>
-      <c r="C11" s="3" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="D11" s="3" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="E11" s="3" t="n">
+      <c r="C11" s="4">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="D11" s="4">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="E11" s="4">
         <v>33.1</v>
       </c>
-      <c r="F11" s="3" t="n">
-        <v>32.7</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="F11" s="4">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>33.280000000000008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="3">
         <v>20300</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="3">
         <v>20300</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="3">
         <v>20300</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="3">
         <v>20300</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="3">
         <v>20300</v>
       </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>20300</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -760,712 +1058,504 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="A14:B64 G2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.8877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="1025" width="11.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="n">
-        <v>9.2</v>
-      </c>
-      <c r="C2" s="3" t="n">
+      <c r="B2" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C2" s="4">
         <v>3.8</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="4">
         <v>4.2</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="4">
         <v>2.6</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="4">
         <v>3.8</v>
       </c>
-      <c r="G2" s="0" t="n">
-        <f aca="false">AVERAGE(B2:F2)</f>
-        <v>4.72</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4">
         <v>52</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4">
         <v>74</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="4">
         <v>113</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="4">
         <v>166</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="4">
         <v>228</v>
       </c>
-      <c r="G3" s="0" t="n">
-        <f aca="false">AVERAGE(B3:F3)</f>
+      <c r="G3" s="3">
+        <f t="shared" ref="G2:G12" si="0">AVERAGE(B3:F3)</f>
         <v>126.6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4">
         <v>24</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4">
         <v>19</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4">
         <v>7</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="4">
         <v>7</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <f aca="false">AVERAGE(B4:F4)</f>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
         <v>13.4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4">
         <v>345</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4">
         <v>245</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4">
         <v>206</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4">
         <v>206</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="4">
         <v>209</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <f aca="false">AVERAGE(B5:F5)</f>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
         <v>242.2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4">
         <v>25264</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4">
         <v>27373</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4">
         <v>44484</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4">
         <v>46069</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="4">
         <v>45598</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <f aca="false">AVERAGE(B6:F6)</f>
-        <v>37757.6</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>37757.599999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4">
         <v>25671</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4">
         <v>27716</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4">
         <v>44822</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="4">
         <v>46448</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="4">
         <v>46042</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <f aca="false">AVERAGE(B7:F7)</f>
-        <v>38139.8</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>38139.800000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4">
         <v>25672</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4">
         <v>27717</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4">
         <v>44822</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="4">
         <v>46448</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="4">
         <v>46042</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <f aca="false">AVERAGE(B8:F8)</f>
-        <v>38140.2</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>38140.199999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4">
         <v>627</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4">
         <v>627</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4">
         <v>627</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4">
         <v>627</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="4">
         <v>627</v>
       </c>
-      <c r="G9" s="0" t="n">
-        <f aca="false">AVERAGE(B9:F9)</f>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
         <v>627</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4">
         <v>625</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4">
         <v>625</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4">
         <v>625</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4">
         <v>625</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="4">
         <v>625</v>
       </c>
-      <c r="G10" s="0" t="n">
-        <f aca="false">AVERAGE(B10:F10)</f>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
         <v>625</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4">
         <v>14.1</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4">
         <v>11.4</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4">
         <v>13.5</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4">
         <v>15.4</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="4">
         <v>14</v>
       </c>
-      <c r="G11" s="0" t="n">
-        <f aca="false">AVERAGE(B11:F11)</f>
-        <v>13.68</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>13.680000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="3">
         <v>29400</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="3">
         <v>29400</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="3">
         <v>29400</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="3">
         <v>29400</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="3">
         <v>29400</v>
       </c>
-      <c r="G12" s="0" t="n">
-        <f aca="false">AVERAGE(B12:F12)</f>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
         <v>29400</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="3" t="n">
-        <v>9.2</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="3" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="3" t="n">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="3" t="n">
-        <v>25264</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="3" t="n">
-        <v>25671</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="3" t="n">
-        <v>25672</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="3" t="n">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="3" t="n">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="3" t="n">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="3" t="n">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="3" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="3" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="3" t="n">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="3" t="n">
-        <v>27373</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="3" t="n">
-        <v>27716</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="3" t="n">
-        <v>27717</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="3" t="n">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="3" t="n">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="3" t="n">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="3" t="n">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="3" t="n">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="3" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="3" t="n">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="3" t="n">
-        <v>44484</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="3" t="n">
-        <v>44822</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="3" t="n">
-        <v>44822</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="3" t="n">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="3" t="n">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" s="3" t="n">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="3" t="n">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="3" t="n">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" s="3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" s="3" t="n">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="3" t="n">
-        <v>46069</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="3" t="n">
-        <v>46448</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="3" t="n">
-        <v>46448</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" s="3" t="n">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" s="3" t="n">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B53" s="3" t="n">
-        <v>15.4</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" s="3" t="n">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="3" t="n">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" s="3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" s="3" t="n">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="3" t="n">
-        <v>45598</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B59" s="3" t="n">
-        <v>46042</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" s="3" t="n">
-        <v>46042</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" s="3" t="n">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B62" s="3" t="n">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B63" s="3" t="n">
-        <v>14</v>
-      </c>
+    <row r="14" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1473,336 +1563,333 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14:B64"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.1836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="1025" width="11.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4">
         <v>3.6</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4">
         <v>2.6</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="4">
         <v>4.3</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="4">
         <v>3.1</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="4">
         <v>2.8</v>
       </c>
-      <c r="G2" s="0" t="n">
-        <f aca="false">AVERAGE(B2:F2)</f>
+      <c r="G2" s="3">
+        <f t="shared" ref="G2:G13" si="0">AVERAGE(B2:F2)</f>
         <v>3.28</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4">
         <v>62</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4">
         <v>50</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="4">
         <v>65</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="4">
         <v>52</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="4">
         <v>56</v>
       </c>
-      <c r="G3" s="0" t="n">
-        <f aca="false">AVERAGE(B3:F3)</f>
+      <c r="G3" s="3">
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <f aca="false">AVERAGE(B4:F4)</f>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
         <v>2.6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4">
         <v>33</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4">
         <v>12</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4">
         <v>10</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4">
         <v>13</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="4">
         <v>13</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <f aca="false">AVERAGE(B5:F5)</f>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
         <v>16.2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4">
         <v>116</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4">
         <v>70</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4">
         <v>65</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4">
         <v>73</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="4">
         <v>60</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <f aca="false">AVERAGE(B6:F6)</f>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
         <v>76.8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4">
         <v>213</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4">
         <v>140</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4">
         <v>141</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="4">
         <v>139</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="4">
         <v>130</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <f aca="false">AVERAGE(B7:F7)</f>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
         <v>152.6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4">
         <v>213</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4">
         <v>140</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4">
         <v>141</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="4">
         <v>139</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="4">
         <v>130</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <f aca="false">AVERAGE(B8:F8)</f>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
         <v>152.6</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4">
         <v>12</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4">
         <v>12</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4">
         <v>12</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4">
         <v>12</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="4">
         <v>12</v>
       </c>
-      <c r="G9" s="0" t="n">
-        <f aca="false">AVERAGE(B9:F9)</f>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4">
         <v>10</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4">
         <v>10</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4">
         <v>10</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4">
         <v>10</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="4">
         <v>10</v>
       </c>
-      <c r="G10" s="0" t="n">
-        <f aca="false">AVERAGE(B10:F10)</f>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="3" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="C11" s="3" t="n">
+      <c r="B11" s="4">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="C11" s="4">
         <v>31.6</v>
       </c>
-      <c r="D11" s="3" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="E11" s="3" t="n">
+      <c r="D11" s="4">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="E11" s="4">
         <v>33.5</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="4">
         <v>32.1</v>
       </c>
-      <c r="G11" s="0" t="n">
-        <f aca="false">AVERAGE(B11:F11)</f>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
         <v>33.26</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="D12" s="3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="E12" s="3" t="n">
+      <c r="B12" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E12" s="4">
         <v>2.7</v>
       </c>
-      <c r="F12" s="3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <f aca="false">AVERAGE(B12:F12)</f>
+      <c r="F12" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
         <v>2.34</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="3">
         <v>12400</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="3">
         <v>12400</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="3">
         <v>12400</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="3">
         <v>12400</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="3">
         <v>12400</v>
       </c>
-      <c r="G13" s="0" t="n">
-        <f aca="false">AVERAGE(B13:F13)</f>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
         <v>12400</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1810,288 +1897,283 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="A14:B64 G2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.3214285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="1025" width="11.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4">
         <v>7.7</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4">
         <v>8.1</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="4">
         <v>776.3</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="4">
         <v>10.9</v>
       </c>
-      <c r="F2" s="3" t="n">
-        <v>9.7</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <f aca="false">AVERAGE(B2:F2)</f>
+      <c r="F2" s="4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G2" s="3">
+        <f t="shared" ref="G2:G11" si="0">AVERAGE(B2:F2)</f>
         <v>162.54</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4">
         <v>67</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4">
         <v>536</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="4">
         <v>1016</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="4">
         <v>727</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="4">
         <v>884</v>
       </c>
-      <c r="G3" s="0" t="n">
-        <f aca="false">AVERAGE(B3:F3)</f>
+      <c r="G3" s="3">
+        <f t="shared" si="0"/>
         <v>646</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4">
         <v>37</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4">
         <v>36</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4">
         <v>50</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4">
         <v>28</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="4">
         <v>28</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <f aca="false">AVERAGE(B4:F4)</f>
-        <v>35.8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4">
         <v>1011</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4">
         <v>807</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4">
         <v>815</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4">
         <v>828</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="4">
         <v>791</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <f aca="false">AVERAGE(B5:F5)</f>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
         <v>850.4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4">
         <v>189140</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4">
         <v>254113</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4">
         <v>257666</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4">
         <v>280320</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="4">
         <v>275344</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <f aca="false">AVERAGE(B6:F6)</f>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
         <v>251316.6</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4">
         <v>190255</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4">
         <v>255492</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4">
         <v>259547</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="4">
         <v>281903</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="4">
         <v>277047</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <f aca="false">AVERAGE(B7:F7)</f>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
         <v>252848.8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4">
         <v>190255</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4">
         <v>255493</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4">
         <v>259548</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="4">
         <v>281903</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="4">
         <v>277047</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <f aca="false">AVERAGE(B8:F8)</f>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
         <v>252849.2</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4">
         <v>2849</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4">
         <v>2849</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4">
         <v>2849</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4">
         <v>2849</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="4">
         <v>2849</v>
       </c>
-      <c r="G9" s="0" t="n">
-        <f aca="false">AVERAGE(B9:F9)</f>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
         <v>2849</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4">
         <v>2835</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4">
         <v>2835</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4">
         <v>2835</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4">
         <v>2835</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="4">
         <v>2835</v>
       </c>
-      <c r="G10" s="0" t="n">
-        <f aca="false">AVERAGE(B10:F10)</f>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
         <v>2835</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="3">
         <v>114000</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="3">
         <v>114000</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="3">
         <v>114000</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="3">
         <v>114000</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="3">
         <v>114000</v>
       </c>
-      <c r="G11" s="0" t="n">
-        <f aca="false">AVERAGE(B11:F11)</f>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
         <v>114000</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2099,312 +2181,310 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B64" activeCellId="0" sqref="A14:B64"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.6071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="1025" width="11.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4">
         <v>18.7</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4">
         <v>7.7</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="4">
         <v>7.8</v>
       </c>
-      <c r="E2" s="3" t="n">
-        <v>8.8</v>
-      </c>
-      <c r="F2" s="3" t="n">
+      <c r="E2" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F2" s="4">
         <v>12.2</v>
       </c>
-      <c r="G2" s="0" t="n">
-        <f aca="false">AVERAGE(B2:F2)</f>
-        <v>11.04</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="G2" s="3">
+        <f t="shared" ref="G2:G12" si="0">AVERAGE(B2:F2)</f>
+        <v>11.040000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4">
         <v>219</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4">
         <v>276</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="4">
         <v>409</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="4">
         <v>411</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="4">
         <v>256</v>
       </c>
-      <c r="G3" s="0" t="n">
-        <f aca="false">AVERAGE(B3:F3)</f>
+      <c r="G3" s="3">
+        <f t="shared" si="0"/>
         <v>314.2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4">
         <v>22</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4">
         <v>38</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4">
         <v>31</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4">
         <v>21</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="4">
         <v>22</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <f aca="false">AVERAGE(B4:F4)</f>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
         <v>26.8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4">
         <v>409</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4">
         <v>300</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4">
         <v>300</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4">
         <v>275</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="4">
         <v>260</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <f aca="false">AVERAGE(B5:F5)</f>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
         <v>308.8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4">
         <v>40479</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4">
         <v>50517</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4">
         <v>49373</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4">
         <v>50315</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="4">
         <v>50848</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <f aca="false">AVERAGE(B6:F6)</f>
-        <v>48306.4</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>48306.400000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4">
         <v>41129</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4">
         <v>51131</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4">
         <v>50113</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="4">
         <v>51022</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="4">
         <v>51386</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <f aca="false">AVERAGE(B7:F7)</f>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
         <v>48956.2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4">
         <v>41130</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4">
         <v>51132</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4">
         <v>50113</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="4">
         <v>51022</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="4">
         <v>51387</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <f aca="false">AVERAGE(B8:F8)</f>
-        <v>48956.8</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>48956.800000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4">
         <v>802</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4">
         <v>802</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4">
         <v>802</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4">
         <v>802</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="4">
         <v>802</v>
       </c>
-      <c r="G9" s="0" t="n">
-        <f aca="false">AVERAGE(B9:F9)</f>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
         <v>802</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4">
         <v>792</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4">
         <v>792</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4">
         <v>792</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4">
         <v>792</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="4">
         <v>792</v>
       </c>
-      <c r="G10" s="0" t="n">
-        <f aca="false">AVERAGE(B10:F10)</f>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
         <v>792</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4">
         <v>168.7</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4">
         <v>170</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4">
         <v>172.8</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4">
         <v>169.7</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="4">
         <v>164.1</v>
       </c>
-      <c r="G11" s="0" t="n">
-        <f aca="false">AVERAGE(B11:F11)</f>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
         <v>169.06</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="3">
         <v>63500</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="3">
         <v>63500</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="3">
         <v>63500</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="3">
         <v>63500</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="3">
         <v>63500</v>
       </c>
-      <c r="G12" s="0" t="n">
-        <f aca="false">AVERAGE(B12:F12)</f>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
         <v>63500</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2412,312 +2492,309 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14:B64"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.3214285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="1025" width="11.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4">
         <v>218.6</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="4">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="4">
         <v>8.4</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="4">
         <v>7.5</v>
       </c>
-      <c r="G2" s="0" t="n">
-        <f aca="false">AVERAGE(B2:F2)</f>
+      <c r="G2" s="3">
+        <f t="shared" ref="G2:G12" si="0">AVERAGE(B2:F2)</f>
         <v>50.5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4">
         <v>352</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4">
         <v>219</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="4">
         <v>424</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="4">
         <v>497</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="4">
         <v>623</v>
       </c>
-      <c r="G3" s="0" t="n">
-        <f aca="false">AVERAGE(B3:F3)</f>
+      <c r="G3" s="3">
+        <f t="shared" si="0"/>
         <v>423</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4">
         <v>24</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4">
         <v>30</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4">
         <v>41</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4">
         <v>31</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="4">
         <v>39</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <f aca="false">AVERAGE(B4:F4)</f>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4">
         <v>798</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4">
         <v>545</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4">
         <v>569</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4">
         <v>539</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="4">
         <v>514</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <f aca="false">AVERAGE(B5:F5)</f>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
         <v>593</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4">
         <v>119592</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4">
         <v>129824</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4">
         <v>131275</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4">
         <v>135389</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="4">
         <v>136706</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <f aca="false">AVERAGE(B6:F6)</f>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
         <v>130557.2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4">
         <v>120766</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4">
         <v>130618</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4">
         <v>132309</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="4">
         <v>136456</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="4">
         <v>137882</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <f aca="false">AVERAGE(B7:F7)</f>
-        <v>131606.2</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>131606.20000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4">
         <v>120766</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4">
         <v>130620</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4">
         <v>132309</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="4">
         <v>136456</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="4">
         <v>137882</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <f aca="false">AVERAGE(B8:F8)</f>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
         <v>131606.6</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4">
         <v>1737</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4">
         <v>1737</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4">
         <v>1737</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4">
         <v>1737</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="4">
         <v>1737</v>
       </c>
-      <c r="G9" s="0" t="n">
-        <f aca="false">AVERAGE(B9:F9)</f>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
         <v>1737</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4">
         <v>1719</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4">
         <v>1719</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4">
         <v>1719</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4">
         <v>1719</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="4">
         <v>1719</v>
       </c>
-      <c r="G10" s="0" t="n">
-        <f aca="false">AVERAGE(B10:F10)</f>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
         <v>1719</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4">
         <v>93.3</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4">
         <v>98</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4">
         <v>89.9</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4">
         <v>91.9</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="4">
         <v>97.1</v>
       </c>
-      <c r="G11" s="0" t="n">
-        <f aca="false">AVERAGE(B11:F11)</f>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
         <v>94.04</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="3">
         <v>83500</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="3">
         <v>83500</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="3">
         <v>83500</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="3">
         <v>83500</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="3">
         <v>83500</v>
       </c>
-      <c r="G12" s="0" t="n">
-        <f aca="false">AVERAGE(B12:F12)</f>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
         <v>83500</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2725,336 +2802,333 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14:B64"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.3214285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="1025" width="11.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="n">
-        <v>8.2</v>
-      </c>
-      <c r="D2" s="3" t="n">
+      <c r="C2" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D2" s="4">
         <v>7.3</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="4">
         <v>7.7</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="4">
         <v>7.1</v>
       </c>
-      <c r="G2" s="0" t="n">
-        <f aca="false">AVERAGE(B2:F2)</f>
-        <v>7.46</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="G2" s="3">
+        <f t="shared" ref="G2:G13" si="0">AVERAGE(B2:F2)</f>
+        <v>7.4599999999999991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4">
         <v>223</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4">
         <v>207</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="4">
         <v>315</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="4">
         <v>212</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="4">
         <v>248</v>
       </c>
-      <c r="G3" s="0" t="n">
-        <f aca="false">AVERAGE(B3:F3)</f>
+      <c r="G3" s="3">
+        <f t="shared" si="0"/>
         <v>241</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4">
         <v>20</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4">
         <v>16</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="4">
         <v>23</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <f aca="false">AVERAGE(B4:F4)</f>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
         <v>16.8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4">
         <v>177</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4">
         <v>137</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4">
         <v>117</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4">
         <v>137</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="4">
         <v>109</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <f aca="false">AVERAGE(B5:F5)</f>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
         <v>135.4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4">
         <v>7785</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4">
         <v>14570</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4">
         <v>16153</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4">
         <v>17491</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="4">
         <v>14699</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <f aca="false">AVERAGE(B6:F6)</f>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
         <v>14139.6</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4">
         <v>8203</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4">
         <v>14934</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4">
         <v>16592</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="4">
         <v>17856</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="4">
         <v>15079</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <f aca="false">AVERAGE(B7:F7)</f>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
         <v>14532.8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4">
         <v>8203</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4">
         <v>14934</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4">
         <v>16592</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="4">
         <v>17856</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="4">
         <v>15079</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <f aca="false">AVERAGE(B8:F8)</f>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
         <v>14532.8</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4">
         <v>286</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4">
         <v>286</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4">
         <v>286</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4">
         <v>286</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="4">
         <v>286</v>
       </c>
-      <c r="G9" s="0" t="n">
-        <f aca="false">AVERAGE(B9:F9)</f>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
         <v>286</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4">
         <v>276</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4">
         <v>276</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4">
         <v>276</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4">
         <v>276</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="4">
         <v>276</v>
       </c>
-      <c r="G10" s="0" t="n">
-        <f aca="false">AVERAGE(B10:F10)</f>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
         <v>276</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4">
         <v>174</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4">
         <v>166.7</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4">
         <v>239.4</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4">
         <v>167.7</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="4">
         <v>175.8</v>
       </c>
-      <c r="G11" s="0" t="n">
-        <f aca="false">AVERAGE(B11:F11)</f>
-        <v>184.72</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>184.71999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4">
         <v>7.2</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4">
         <v>6.8</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4">
         <v>7.7</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="4">
         <v>7.6</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="4">
         <v>7.3</v>
       </c>
-      <c r="G12" s="0" t="n">
-        <f aca="false">AVERAGE(B12:F12)</f>
-        <v>7.32</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>7.3199999999999985</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="3">
         <v>42900</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="3">
         <v>42900</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="3">
         <v>42900</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="3">
         <v>42900</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="3">
         <v>42900</v>
       </c>
-      <c r="G13" s="0" t="n">
-        <f aca="false">AVERAGE(B13:F13)</f>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
         <v>42900</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3062,311 +3136,307 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="A14:B64 B6"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="29.6173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="11.5204081632653"/>
+    <col min="1" max="1" width="29.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="1025" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="4">
         <v>1.4</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="4">
         <v>0.6</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="4">
         <v>0.8</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="4">
         <v>0.6</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="4">
         <v>0.6</v>
       </c>
-      <c r="G2" s="1" t="n">
-        <f aca="false">AVERAGE(B2:F2)</f>
+      <c r="G2" s="3">
+        <f t="shared" ref="G2:G12" si="0">AVERAGE(B2:F2)</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="4">
         <v>22</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="4">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="4">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="4">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="4">
         <v>14</v>
       </c>
-      <c r="G3" s="1" t="n">
-        <f aca="false">AVERAGE(B3:F3)</f>
+      <c r="G3" s="3">
+        <f t="shared" si="0"/>
         <v>15.6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="4">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="4">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="4">
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="4">
         <v>0</v>
       </c>
-      <c r="G4" s="1" t="n">
-        <f aca="false">AVERAGE(B4:F4)</f>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="4">
         <v>35</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="4">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="4">
         <v>6</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="4">
         <v>6</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="4">
         <v>9</v>
       </c>
-      <c r="G5" s="1" t="n">
-        <f aca="false">AVERAGE(B5:F5)</f>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
         <v>12.6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="4">
         <v>49</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="4">
         <v>88</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="4">
         <v>36</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="4">
         <v>59</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="4">
         <v>53</v>
       </c>
-      <c r="G6" s="1" t="n">
-        <f aca="false">AVERAGE(B6:F6)</f>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="4">
         <v>109</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="4">
         <v>109</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="4">
         <v>56</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="4">
         <v>79</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="4">
         <v>76</v>
       </c>
-      <c r="G7" s="1" t="n">
-        <f aca="false">AVERAGE(B7:F7)</f>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
         <v>85.8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="4">
         <v>109</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="4">
         <v>109</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="4">
         <v>56</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="4">
         <v>79</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="4">
         <v>76</v>
       </c>
-      <c r="G8" s="1" t="n">
-        <f aca="false">AVERAGE(B8:F8)</f>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
         <v>85.8</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="4">
         <v>9</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="4">
         <v>9</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="4">
         <v>9</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="4">
         <v>9</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="4">
         <v>9</v>
       </c>
-      <c r="G9" s="1" t="n">
-        <f aca="false">AVERAGE(B9:F9)</f>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="4">
         <v>4</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="4">
         <v>4</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="4">
         <v>4</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="4">
         <v>4</v>
       </c>
-      <c r="G10" s="1" t="n">
-        <f aca="false">AVERAGE(B10:F10)</f>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="4">
         <v>0.4</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="4">
         <v>0.4</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="4">
         <v>0.4</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="4">
         <v>0.4</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="4">
         <v>0.3</v>
       </c>
-      <c r="G11" s="1" t="n">
-        <f aca="false">AVERAGE(B11:F11)</f>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
         <v>0.38</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="3">
         <v>827</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="3">
         <v>827</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="3">
         <v>827</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="3">
         <v>827</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F12" s="3">
         <v>827</v>
       </c>
-      <c r="G12" s="1" t="n">
-        <f aca="false">AVERAGE(B12:F12)</f>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
         <v>827</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3374,311 +3444,309 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A14:B64"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="30.3214285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="11.5204081632653"/>
+    <col min="1" max="1" width="29.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="1025" width="11.54296875" style="3"/>
+    <col min="1026" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="4">
         <v>0.7</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="4">
         <v>0.5</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="4">
         <v>0.8</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="4">
         <v>0.7</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="4">
         <v>0.8</v>
       </c>
-      <c r="G2" s="1" t="n">
-        <f aca="false">AVERAGE(B2:F2)</f>
+      <c r="G2" s="3">
+        <f t="shared" ref="G2:G12" si="0">AVERAGE(B2:F2)</f>
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="4">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="4">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="4">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="4">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="4">
         <v>21</v>
       </c>
-      <c r="G3" s="1" t="n">
-        <f aca="false">AVERAGE(B3:F3)</f>
+      <c r="G3" s="3">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="4">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="1" t="n">
-        <f aca="false">AVERAGE(B4:F4)</f>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="4">
         <v>35</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="4">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="4">
         <v>17</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="4">
         <v>14</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="4">
         <v>22</v>
       </c>
-      <c r="G5" s="1" t="n">
-        <f aca="false">AVERAGE(B5:F5)</f>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
         <v>20.8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="4">
         <v>73</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="4">
         <v>135</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="4">
         <v>76</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="4">
         <v>95</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="4">
         <v>76</v>
       </c>
-      <c r="G6" s="1" t="n">
-        <f aca="false">AVERAGE(B6:F6)</f>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
         <v>91</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="4">
         <v>129</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="4">
         <v>165</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="4">
         <v>107</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="4">
         <v>127</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="4">
         <v>120</v>
       </c>
-      <c r="G7" s="1" t="n">
-        <f aca="false">AVERAGE(B7:F7)</f>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
         <v>129.6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="4">
         <v>129</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="4">
         <v>165</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="4">
         <v>107</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="4">
         <v>127</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="4">
         <v>120</v>
       </c>
-      <c r="G8" s="1" t="n">
-        <f aca="false">AVERAGE(B8:F8)</f>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
         <v>129.6</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="4">
         <v>18</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="4">
         <v>18</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="4">
         <v>18</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="4">
         <v>18</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="4">
         <v>18</v>
       </c>
-      <c r="G9" s="1" t="n">
-        <f aca="false">AVERAGE(B9:F9)</f>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="4">
         <v>13</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="4">
         <v>13</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="4">
         <v>13</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="4">
         <v>13</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="4">
         <v>13</v>
       </c>
-      <c r="G10" s="1" t="n">
-        <f aca="false">AVERAGE(B10:F10)</f>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="4">
         <v>0.3</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="4">
         <v>0.3</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="4">
         <v>0.3</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="4">
         <v>0.5</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="4">
         <v>0.4</v>
       </c>
-      <c r="G11" s="1" t="n">
-        <f aca="false">AVERAGE(B11:F11)</f>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
         <v>0.36</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="3">
         <v>1012</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="3">
         <v>1012</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="3">
         <v>1012</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="3">
         <v>1012</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F12" s="3">
         <v>1012</v>
       </c>
-      <c r="G12" s="1" t="n">
-        <f aca="false">AVERAGE(B12:F12)</f>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
         <v>1012</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3686,336 +3754,331 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14:B64"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="1025" width="11.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4">
         <v>0.8</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="4">
         <v>0.5</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="4">
         <v>0.7</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="4">
         <v>0.6</v>
       </c>
-      <c r="G2" s="0" t="n">
-        <f aca="false">AVERAGE(B2:F2)</f>
+      <c r="G2" s="3">
+        <f t="shared" ref="G2:G13" si="0">AVERAGE(B2:F2)</f>
         <v>0.72</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4">
         <v>17</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4">
         <v>20</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="4">
         <v>16</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="4">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="4">
         <v>13</v>
       </c>
-      <c r="G3" s="0" t="n">
-        <f aca="false">AVERAGE(B3:F3)</f>
+      <c r="G3" s="3">
+        <f t="shared" si="0"/>
         <v>15.8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4">
         <v>0</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4">
         <v>0</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <f aca="false">AVERAGE(B4:F4)</f>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4">
         <v>9</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4">
         <v>5</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="4">
         <v>8</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <f aca="false">AVERAGE(B5:F5)</f>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4">
         <v>61</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4">
         <v>38</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4">
         <v>28</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4">
         <v>35</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="4">
         <v>27</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <f aca="false">AVERAGE(B6:F6)</f>
-        <v>37.8</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4">
         <v>89</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4">
         <v>72</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4">
         <v>53</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="4">
         <v>53</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="4">
         <v>49</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <f aca="false">AVERAGE(B7:F7)</f>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
         <v>63.2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4">
         <v>89</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4">
         <v>72</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4">
         <v>53</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="4">
         <v>53</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="4">
         <v>49</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <f aca="false">AVERAGE(B8:F8)</f>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
         <v>63.2</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4">
         <v>7</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4">
         <v>7</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4">
         <v>7</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="4">
         <v>7</v>
       </c>
-      <c r="G9" s="0" t="n">
-        <f aca="false">AVERAGE(B9:F9)</f>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4">
         <v>2</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4">
         <v>2</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4">
         <v>2</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4">
         <v>2</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="4">
         <v>2</v>
       </c>
-      <c r="G10" s="0" t="n">
-        <f aca="false">AVERAGE(B10:F10)</f>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4">
         <v>0.3</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4">
         <v>0.3</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4">
         <v>0.3</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4">
         <v>0.4</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="4">
         <v>0.3</v>
       </c>
-      <c r="G11" s="0" t="n">
-        <f aca="false">AVERAGE(B11:F11)</f>
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.31999999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4">
         <v>0.1</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4">
         <v>0.1</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4">
         <v>0.1</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="4">
         <v>0.1</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="4">
         <v>0.1</v>
       </c>
-      <c r="G12" s="0" t="n">
-        <f aca="false">AVERAGE(B12:F12)</f>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="3">
         <v>785</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="3">
         <v>785</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="3">
         <v>785</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="3">
         <v>785</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="3">
         <v>785</v>
       </c>
-      <c r="G13" s="0" t="n">
-        <f aca="false">AVERAGE(B13:F13)</f>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
         <v>785</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4023,288 +4086,286 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="1" sqref="A14:B64 C14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.5663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="1025" width="11.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4">
         <v>1.8</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4">
         <v>1.3</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="4">
         <v>0.9</v>
       </c>
-      <c r="E2" s="3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <f aca="false">AVERAGE(B2:F2)</f>
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="E2" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G2" s="3">
+        <f t="shared" ref="G2:G11" si="0">AVERAGE(B2:F2)</f>
+        <v>1.2399999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4">
         <v>21</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4">
         <v>27</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="4">
         <v>31</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="4">
         <v>152</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="4">
         <v>19</v>
       </c>
-      <c r="G3" s="0" t="n">
-        <f aca="false">AVERAGE(B3:F3)</f>
+      <c r="G3" s="3">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4">
         <v>3</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="4">
         <v>2</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <f aca="false">AVERAGE(B4:F4)</f>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4">
         <v>162</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4">
         <v>93</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4">
         <v>80</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4">
         <v>77</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="4">
         <v>74</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <f aca="false">AVERAGE(B5:F5)</f>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
         <v>97.2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4">
         <v>10918</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4">
         <v>6641</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4">
         <v>7065</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4">
         <v>6619</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="4">
         <v>4915</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <f aca="false">AVERAGE(B6:F6)</f>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
         <v>7231.6</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4">
         <v>11107</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4">
         <v>6765</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4">
         <v>7181</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="4">
         <v>6851</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="4">
         <v>5010</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <f aca="false">AVERAGE(B7:F7)</f>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
         <v>7382.8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4">
         <v>11107</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4">
         <v>6765</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4">
         <v>7181</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="4">
         <v>6851</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="4">
         <v>5010</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <f aca="false">AVERAGE(B8:F8)</f>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
         <v>7382.8</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4">
         <v>199</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4">
         <v>199</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4">
         <v>199</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4">
         <v>199</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="4">
         <v>199</v>
       </c>
-      <c r="G9" s="0" t="n">
-        <f aca="false">AVERAGE(B9:F9)</f>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
         <v>199</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4">
         <v>199</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4">
         <v>199</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4">
         <v>199</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4">
         <v>199</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="4">
         <v>199</v>
       </c>
-      <c r="G10" s="0" t="n">
-        <f aca="false">AVERAGE(B10:F10)</f>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
         <v>199</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="3">
         <v>7600</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="3">
         <v>7600</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="3">
         <v>7600</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="3">
         <v>7600</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="3">
         <v>7600</v>
       </c>
-      <c r="G11" s="0" t="n">
-        <f aca="false">AVERAGE(B11:F11)</f>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
         <v>7600</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4312,312 +4373,309 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="1" sqref="A14:B64 G14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="1025" width="11.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4">
         <v>1.5</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4">
         <v>1.2</v>
       </c>
-      <c r="D2" s="3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="E2" s="3" t="n">
+      <c r="D2" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E2" s="4">
         <v>1.2</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="4">
         <v>0.9</v>
       </c>
-      <c r="G2" s="0" t="n">
-        <f aca="false">AVERAGE(B2:F2)</f>
-        <v>1.18</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="G2" s="3">
+        <f t="shared" ref="G2:G12" si="0">AVERAGE(B2:F2)</f>
+        <v>1.1800000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4">
         <v>24</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4">
         <v>28</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="4">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="4">
         <v>25</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="4">
         <v>18</v>
       </c>
-      <c r="G3" s="0" t="n">
-        <f aca="false">AVERAGE(B3:F3)</f>
+      <c r="G3" s="3">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="4">
         <v>2</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <f aca="false">AVERAGE(B4:F4)</f>
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4">
         <v>71</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4">
         <v>41</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4">
         <v>48</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4">
         <v>31</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="4">
         <v>33</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <f aca="false">AVERAGE(B5:F5)</f>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
         <v>44.8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4">
         <v>860</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4">
         <v>361</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4">
         <v>632</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4">
         <v>434</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="4">
         <v>679</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <f aca="false">AVERAGE(B6:F6)</f>
-        <v>593.2</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>593.20000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4">
         <v>957</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4">
         <v>434</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4">
         <v>697</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="4">
         <v>491</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="4">
         <v>732</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <f aca="false">AVERAGE(B7:F7)</f>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
         <v>662.2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4">
         <v>957</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4">
         <v>434</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4">
         <v>699</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="4">
         <v>491</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="4">
         <v>734</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <f aca="false">AVERAGE(B8:F8)</f>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
         <v>663</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4">
         <v>60</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4">
         <v>60</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4">
         <v>60</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4">
         <v>60</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="4">
         <v>60</v>
       </c>
-      <c r="G9" s="0" t="n">
-        <f aca="false">AVERAGE(B9:F9)</f>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4">
         <v>60</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4">
         <v>60</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4">
         <v>60</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4">
         <v>60</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="4">
         <v>60</v>
       </c>
-      <c r="G10" s="0" t="n">
-        <f aca="false">AVERAGE(B10:F10)</f>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4">
         <v>2.5</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4">
         <v>3.4</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4">
         <v>2.5</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4">
         <v>3.7</v>
       </c>
-      <c r="F11" s="3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <f aca="false">AVERAGE(B11:F11)</f>
-        <v>2.86</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="F11" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8600000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="3">
         <v>3900</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="3">
         <v>3900</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="3">
         <v>3900</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="3">
         <v>3900</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="3">
         <v>3900</v>
       </c>
-      <c r="G12" s="0" t="n">
-        <f aca="false">AVERAGE(B12:F12)</f>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
         <v>3900</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4625,312 +4683,307 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="1" sqref="A14:B64 G13"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.3112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="29.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="1025" width="11.54296875" style="3"/>
+    <col min="1026" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4">
         <v>1.6</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="4">
         <v>0.9</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="4">
         <v>1.3</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="4">
         <v>1.2</v>
       </c>
-      <c r="G2" s="0" t="n">
-        <f aca="false">AVERAGE(B2:F2)</f>
+      <c r="G2" s="3">
+        <f t="shared" ref="G2:G12" si="0">AVERAGE(B2:F2)</f>
         <v>1.2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4">
         <v>22</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4">
         <v>18</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="4">
         <v>19</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="4">
         <v>18</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="4">
         <v>24</v>
       </c>
-      <c r="G3" s="0" t="n">
-        <f aca="false">AVERAGE(B3:F3)</f>
+      <c r="G3" s="3">
+        <f t="shared" si="0"/>
         <v>20.2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="4">
         <v>3</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <f aca="false">AVERAGE(B4:F4)</f>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4">
         <v>151</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4">
         <v>88</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4">
         <v>75</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4">
         <v>73</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="4">
         <v>63</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <f aca="false">AVERAGE(B5:F5)</f>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4">
         <v>7399</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4">
         <v>5346</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4">
         <v>5365</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4">
         <v>7870</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="4">
         <v>7196</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <f aca="false">AVERAGE(B6:F6)</f>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
         <v>6635.2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4">
         <v>7578</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4">
         <v>5457</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4">
         <v>5461</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="4">
         <v>7963</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="4">
         <v>7286</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <f aca="false">AVERAGE(B7:F7)</f>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
         <v>6749</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4">
         <v>7578</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4">
         <v>5457</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4">
         <v>5461</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="4">
         <v>7963</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="4">
         <v>7286</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <f aca="false">AVERAGE(B8:F8)</f>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
         <v>6749</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4">
         <v>155</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4">
         <v>155</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4">
         <v>155</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4">
         <v>155</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="4">
         <v>155</v>
       </c>
-      <c r="G9" s="0" t="n">
-        <f aca="false">AVERAGE(B9:F9)</f>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
         <v>155</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4">
         <v>155</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4">
         <v>155</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4">
         <v>155</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4">
         <v>155</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="4">
         <v>155</v>
       </c>
-      <c r="G10" s="0" t="n">
-        <f aca="false">AVERAGE(B10:F10)</f>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
         <v>155</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4">
         <v>1.2</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4">
         <v>1.6</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4">
         <v>1.2</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4">
         <v>1.6</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="4">
         <v>1.4</v>
       </c>
-      <c r="G11" s="0" t="n">
-        <f aca="false">AVERAGE(B11:F11)</f>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="3">
         <v>6100</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="3">
         <v>6100</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="3">
         <v>6100</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="3">
         <v>6100</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="3">
         <v>6100</v>
       </c>
-      <c r="G12" s="0" t="n">
-        <f aca="false">AVERAGE(B12:F12)</f>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
         <v>6100</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4938,336 +4991,333 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14:B64"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="1025" width="11.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4">
         <v>1.3</v>
       </c>
-      <c r="C2" s="3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="D2" s="3" t="n">
+      <c r="C2" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D2" s="4">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="4">
         <v>1.4</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="4">
         <v>1</v>
       </c>
-      <c r="G2" s="0" t="n">
-        <f aca="false">AVERAGE(B2:F2)</f>
-        <v>1.16</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="G2" s="3">
+        <f t="shared" ref="G2:G13" si="0">AVERAGE(B2:F2)</f>
+        <v>1.1600000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4">
         <v>23</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4">
         <v>22</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="4">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="4">
         <v>18</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="4">
         <v>17</v>
       </c>
-      <c r="G3" s="0" t="n">
-        <f aca="false">AVERAGE(B3:F3)</f>
+      <c r="G3" s="3">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="4">
         <v>0</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <f aca="false">AVERAGE(B4:F4)</f>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4">
         <v>40</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4">
         <v>26</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="4">
         <v>19</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <f aca="false">AVERAGE(B5:F5)</f>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
         <v>23.6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4">
         <v>90</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4">
         <v>127</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4">
         <v>117</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4">
         <v>92</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="4">
         <v>88</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <f aca="false">AVERAGE(B6:F6)</f>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
         <v>102.8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4">
         <v>155</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4">
         <v>165</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4">
         <v>151</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="4">
         <v>137</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="4">
         <v>124</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <f aca="false">AVERAGE(B7:F7)</f>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
         <v>146.4</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4">
         <v>156</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4">
         <v>165</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4">
         <v>151</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="4">
         <v>137</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="4">
         <v>124</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <f aca="false">AVERAGE(B8:F8)</f>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
         <v>146.6</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4">
         <v>17</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4">
         <v>17</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4">
         <v>17</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="4">
         <v>17</v>
       </c>
-      <c r="G9" s="0" t="n">
-        <f aca="false">AVERAGE(B9:F9)</f>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4">
         <v>17</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4">
         <v>17</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4">
         <v>17</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4">
         <v>17</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="4">
         <v>17</v>
       </c>
-      <c r="G10" s="0" t="n">
-        <f aca="false">AVERAGE(B10:F10)</f>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4">
         <v>2.7</v>
       </c>
-      <c r="C11" s="3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="D11" s="3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="E11" s="3" t="n">
+      <c r="C11" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E11" s="4">
         <v>2.4</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="4">
         <v>3</v>
       </c>
-      <c r="G11" s="0" t="n">
-        <f aca="false">AVERAGE(B11:F11)</f>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
         <v>2.52</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4">
         <v>0.6</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4">
         <v>0.7</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4">
         <v>0.5</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="4">
         <v>0.6</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="4">
         <v>0.6</v>
       </c>
-      <c r="G12" s="0" t="n">
-        <f aca="false">AVERAGE(B12:F12)</f>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="3">
         <v>2300</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="3">
         <v>2300</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="3">
         <v>2300</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="3">
         <v>2300</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="3">
         <v>2300</v>
       </c>
-      <c r="G13" s="0" t="n">
-        <f aca="false">AVERAGE(B13:F13)</f>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
         <v>2300</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5275,288 +5325,285 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="1" sqref="A14:B64 A12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.0408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="1025" width="11.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4">
         <v>11.2</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="4">
         <v>2.8</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="4">
         <v>3.4</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="4">
         <v>4.2</v>
       </c>
-      <c r="G2" s="0" t="n">
-        <f aca="false">AVERAGE(B2:F2)</f>
-        <v>5.32</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="G2" s="3">
+        <f t="shared" ref="G2:G11" si="0">AVERAGE(B2:F2)</f>
+        <v>5.3199999999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4">
         <v>76</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4">
         <v>112</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="4">
         <v>168</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="4">
         <v>231</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="4">
         <v>300</v>
       </c>
-      <c r="G3" s="0" t="n">
-        <f aca="false">AVERAGE(B3:F3)</f>
+      <c r="G3" s="3">
+        <f t="shared" si="0"/>
         <v>177.4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4">
         <v>18</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="4">
         <v>15</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <f aca="false">AVERAGE(B4:F4)</f>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4">
         <v>462</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4">
         <v>369</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4">
         <v>337</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4">
         <v>319</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="4">
         <v>319</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <f aca="false">AVERAGE(B5:F5)</f>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
         <v>361.2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4">
         <v>46953</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4">
         <v>51755</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4">
         <v>65767</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4">
         <v>65981</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="4">
         <v>66398</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <f aca="false">AVERAGE(B6:F6)</f>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
         <v>59370.8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4">
         <v>47505</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4">
         <v>52248</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4">
         <v>66288</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="4">
         <v>66549</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="4">
         <v>67032</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <f aca="false">AVERAGE(B7:F7)</f>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
         <v>59924.4</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4">
         <v>47506</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4">
         <v>52248</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4">
         <v>66288</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="4">
         <v>66550</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="4">
         <v>67033</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <f aca="false">AVERAGE(B8:F8)</f>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
         <v>59925</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4">
         <v>1089</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4">
         <v>1089</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4">
         <v>1089</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4">
         <v>1089</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="4">
         <v>1089</v>
       </c>
-      <c r="G9" s="0" t="n">
-        <f aca="false">AVERAGE(B9:F9)</f>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
         <v>1089</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4">
         <v>1087</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4">
         <v>1087</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4">
         <v>1087</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4">
         <v>1087</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="4">
         <v>1087</v>
       </c>
-      <c r="G10" s="0" t="n">
-        <f aca="false">AVERAGE(B10:F10)</f>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
         <v>1087</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="3">
         <v>41400</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="3">
         <v>41400</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="3">
         <v>41400</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="3">
         <v>41400</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="3">
         <v>41400</v>
       </c>
-      <c r="G11" s="0" t="n">
-        <f aca="false">AVERAGE(B11:F11)</f>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
         <v>41400</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
